--- a/knowledge/data/input/Dictionary.xlsx
+++ b/knowledge/data/input/Dictionary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="568">
   <si>
     <t>signification</t>
   </si>
@@ -590,9 +590,6 @@
     <t>ˈædʒaɪl</t>
   </si>
   <si>
-    <t>ˈædʒl</t>
-  </si>
-  <si>
     <t>ˈeərɪə</t>
   </si>
   <si>
@@ -1100,12 +1097,6 @@
     <t>"</t>
   </si>
   <si>
-    <t>région, superficie</t>
-  </si>
-  <si>
-    <t>assigner (tâche), attribuer (travail), imputer (faute)</t>
-  </si>
-  <si>
     <t>cendre</t>
   </si>
   <si>
@@ -1638,6 +1629,99 @@
   </si>
   <si>
     <t>room, etc.</t>
+  </si>
+  <si>
+    <t>fit, flexible</t>
+  </si>
+  <si>
+    <t>ˈædʒ(ə)l</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>graceful</t>
+  </si>
+  <si>
+    <t>souple</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>quick, sharp</t>
+  </si>
+  <si>
+    <t>vif, vive</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias, dit, également connu sous le nom de </t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>tract, region</t>
+  </si>
+  <si>
+    <t>région</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>domaine</t>
+  </si>
+  <si>
+    <t>assigner</t>
+  </si>
+  <si>
+    <t>tâche</t>
+  </si>
+  <si>
+    <t>attribuer</t>
+  </si>
+  <si>
+    <t>travail</t>
+  </si>
+  <si>
+    <t>imputer</t>
+  </si>
+  <si>
+    <t>faute, resonsabilité</t>
+  </si>
+  <si>
+    <t>assign, attribute</t>
+  </si>
+  <si>
+    <t>from fire</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>bois</t>
+  </si>
+  <si>
+    <t>frêne</t>
+  </si>
+  <si>
+    <t>silver grey</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>couleur</t>
+  </si>
+  <si>
+    <t>cendré</t>
   </si>
 </sst>
 </file>
@@ -2004,11 +2088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,48 +2110,48 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,1288 +2161,1292 @@
       <c r="C3" t="s">
         <v>189</v>
       </c>
+      <c r="D3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="I3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>190</v>
+      <c r="F4" t="s">
+        <v>539</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="I4" t="s">
-        <v>359</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="F5" t="s">
+        <v>542</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>304</v>
+        <v>543</v>
+      </c>
+      <c r="I5" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>545</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>360</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>361</v>
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="I7" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>362</v>
+      <c r="F8" t="s">
+        <v>531</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="I8" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>363</v>
+      <c r="H9" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="I9" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="I10" s="4" t="s">
-        <v>364</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>365</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>305</v>
+        <v>503</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>313</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>306</v>
+        <v>562</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>314</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>307</v>
+        <v>564</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>315</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="I23" s="4" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="I24" s="4" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>367</v>
-      </c>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="C29" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>518</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>522</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>373</v>
-      </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>374</v>
-      </c>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>524</v>
-      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>525</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>526</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="I44" s="4" t="s">
-        <v>533</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="C45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>529</v>
-      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>528</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>113</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="I49" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="I50" s="4" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>359</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>484</v>
-      </c>
+      <c r="B52" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>324</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>123</v>
+        <v>480</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>232</v>
+        <v>481</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="I60" s="4" t="s">
-        <v>329</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="I61" s="4" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="I62" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="I64" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="I65" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="I66" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="I67" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="I69" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="I70" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I72" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C73" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I73" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4" t="s">
-        <v>502</v>
-      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="4"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>506</v>
-      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>512</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>516</v>
+        <v>240</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>513</v>
-      </c>
+      <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>514</v>
-      </c>
       <c r="I77" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="I78" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="I80" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J80" s="4"/>
+      <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="C81" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J81" s="4"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>499</v>
+      </c>
       <c r="G82" s="4"/>
       <c r="I82" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J82" s="4"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>70</v>
+        <v>503</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J83" s="4"/>
+        <v>502</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="G84" s="4"/>
       <c r="I84" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J84" s="4"/>
+        <v>508</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>421</v>
+        <v>510</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="J85" s="4"/>
+        <v>512</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="4"/>
+      <c r="A86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
       <c r="I87" s="4" t="s">
-        <v>501</v>
+        <v>340</v>
       </c>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>500</v>
+        <v>341</v>
       </c>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
@@ -3367,67 +3455,64 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="G90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="4"/>
+      <c r="A91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>536</v>
+      </c>
       <c r="G91" s="4" t="s">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>394</v>
+        <v>70</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>398</v>
+        <v>69</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="J92" s="4"/>
     </row>
@@ -3435,33 +3520,32 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="G93" s="4" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H94" s="4" t="s">
-        <v>402</v>
+        <v>72</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="J94" s="4"/>
     </row>
@@ -3469,37 +3553,37 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="G95" s="4" t="s">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
@@ -3508,175 +3592,160 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>409</v>
+        <v>75</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="H98" s="4" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="H99" s="4" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4" t="s">
-        <v>418</v>
+      <c r="G101" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" s="4"/>
-      <c r="G102" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="I104" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>427</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
@@ -3685,129 +3754,154 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>429</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="I107" s="4" t="s">
-        <v>349</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="C108" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="I108" s="4" t="s">
-        <v>359</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>381</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="I110" s="4" t="s">
-        <v>382</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="I111" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="I112" s="4" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4" t="s">
-        <v>432</v>
-      </c>
+      <c r="G113" s="4"/>
       <c r="H113" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
@@ -3816,45 +3910,45 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="4"/>
+      <c r="A115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4" t="s">
-        <v>435</v>
-      </c>
+      <c r="G115" s="4"/>
       <c r="I115" s="4" t="s">
-        <v>436</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="C116" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="I116" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
@@ -3863,235 +3957,219 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D118" s="4"/>
-      <c r="E118" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="G118" s="4"/>
       <c r="I118" s="4" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="4"/>
+      <c r="A119" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="G119" s="4"/>
       <c r="I119" s="4" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D120" s="4"/>
-      <c r="E120" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="I120" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="I121" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4" t="s">
-        <v>444</v>
+      <c r="G123" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D124" s="4"/>
-      <c r="E124" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="G124" s="4"/>
       <c r="I124" s="4" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125" s="4"/>
-      <c r="G125" s="4" t="s">
-        <v>452</v>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="4"/>
+      <c r="A126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="H127" s="4" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>168</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F128" s="4"/>
-      <c r="G128" s="4" t="s">
-        <v>458</v>
-      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="D129" s="4"/>
-      <c r="E129" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>461</v>
-      </c>
+      <c r="G129" s="4"/>
       <c r="I129" s="4" t="s">
-        <v>459</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="4"/>
+      <c r="A130" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
         <v>1</v>
@@ -4099,19 +4177,14 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
         <v>3</v>
@@ -4119,60 +4192,71 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="I132" s="4" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="I133" s="4" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C134" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="I134" s="4" t="s">
-        <v>359</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
@@ -4181,38 +4265,40 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="H136" s="4" t="s">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
@@ -4220,313 +4306,452 @@
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
-        <v>303</v>
+        <v>457</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>535</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="4" t="s">
-        <v>311</v>
+        <v>459</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>387</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>467</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C140" s="4"/>
+      <c r="A140" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="D140" s="4"/>
-      <c r="E140" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="I140" s="4" t="s">
-        <v>465</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="I141" s="4" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="C142" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D142" s="4"/>
-      <c r="E142" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="I142" s="4" t="s">
-        <v>469</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C143" s="4"/>
+      <c r="A143" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I143" s="4" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="I144" s="4" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
+      <c r="G145" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="H145" s="4" t="s">
-        <v>470</v>
+        <v>309</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>295</v>
-      </c>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="F146" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="I146" s="4" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="6" t="s">
-        <v>474</v>
+      <c r="H147" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="F148" s="4"/>
-      <c r="G148" s="4" t="s">
-        <v>475</v>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="I149" s="4" t="s">
-        <v>184</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="4" t="s">
-        <v>476</v>
-      </c>
       <c r="I150" s="4" t="s">
-        <v>390</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>299</v>
-      </c>
+      <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="I151" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="I152" s="4" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F153" s="4"/>
-      <c r="G153" s="4" t="s">
-        <v>478</v>
-      </c>
+      <c r="G153" s="4"/>
       <c r="H153" s="4" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="I154" s="4" t="s">
-        <v>393</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C155" s="4"/>
+      <c r="A155" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="I155" s="4"/>
+      <c r="H155" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="I157" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="I160" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="I162" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="I163" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4804,7 +5029,7 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,10 +5089,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge/data/input/Dictionary.xlsx
+++ b/knowledge/data/input/Dictionary.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="6" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Days" sheetId="3" r:id="rId3"/>
     <sheet name="Months" sheetId="4" r:id="rId4"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dictionary!$A$1:$A$192</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2092,7 +2092,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2103,42 +2103,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2439,3222 +2404,5834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="3" width="16.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B65" si="0">IF(ISBLANK(A2),B1,A2)</f>
+        <v>advertisement</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2:C65" si="1">IF(ISBLANK(A2),C1+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>agile</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="7" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>agile</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="7" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>agile</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>aka</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>area</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>area</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="6" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>area</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ascribe</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ascribe</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ascribe</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ash</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="6"/>
+      <c r="K13" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ash</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>492</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ash</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ash</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>automatically</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>barrage</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>barrage</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="B20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bat</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bat</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>beam</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>570</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>beam</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>beam</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>beam</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bet</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>billboard (US)</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="B28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>blaze</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>blaze</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="J29" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>blaze</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bloodstain</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bot</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E32" s="6" t="s">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>brawl</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>brawl</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bribe</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="K35" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>bribe</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="I33" s="6" t="s">
+      <c r="I36" s="6"/>
+      <c r="K36" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="B37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>brim</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="I34" s="6" t="s">
+      <c r="I37" s="6"/>
+      <c r="K37" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>brim</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="K38" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>browse</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>browse</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>1</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>browse</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="I42" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+        <v>598</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>but</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>but</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="B44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>clog</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="K44" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfort</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E45" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfort</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfort</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfort</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfortable</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfortable</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>394</v>
+        <v>524</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfortable</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>608</v>
+        <v>522</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>4</v>
+        <v>409</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>comfortable</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="I52" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>command</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="F53" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="G53" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H53" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="6"/>
+        <v>621</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="K53" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>command</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
-        <v>618</v>
-      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>confluence</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="I56" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>confluence</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>confluence</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>cumbersome</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6"/>
+      <c r="J58" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="K58" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>cumbersome</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="6"/>
+      <c r="K59" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>cumbersome</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="6"/>
+      <c r="K60" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>database</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>determine</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="6"/>
+      <c r="K62" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="B63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>directly</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="K63" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>directly</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="6"/>
+      <c r="K64" s="6" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="B65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>directory</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="6"/>
+      <c r="K65" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="str">
+        <f t="shared" ref="B66:B129" si="2">IF(ISBLANK(A66),B65,A66)</f>
+        <v>directory</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" ref="C66:C129" si="3">IF(ISBLANK(A66),C65+1,0)</f>
+        <v>1</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="B67" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dismal</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E67" s="6" t="s">
-        <v>394</v>
+        <v>215</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dismal</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
-        <v>640</v>
-      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="I68" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dismal</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
-        <v>642</v>
-      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6" t="s">
-        <v>645</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="K69" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dodge</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="6"/>
       <c r="G70" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>649</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dodge</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+        <v>640</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="K71" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dodge</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>652</v>
-      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dodge</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+        <v>647</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dodge</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H74" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+        <v>649</v>
+      </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>dodge</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
-        <v>659</v>
-      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="I75" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>eclipse</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="K76" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>endear (sth to sb)</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="I77" s="6" t="s">
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="K77" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>endearing</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="I78" s="6" t="s">
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="K78" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>era</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="K79" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>era</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="6"/>
+      <c r="K80" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>era</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>era</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="J82" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="K82" s="6" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="B83" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>error</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="I83" s="6" t="s">
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="K83" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="B84" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>extreme</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="I84" s="6" t="s">
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="K84" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="B85" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>fizzle</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="I85" s="6" t="s">
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="K85" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="B86" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>fizzle out</v>
+      </c>
+      <c r="C86" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="I86" s="6" t="s">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="K86" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="B87" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>flaccid</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="I87" s="6" t="s">
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="K87" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="6" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>flaccid</v>
+      </c>
+      <c r="C88" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="I88" s="6" t="s">
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="K88" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>flipper</v>
+      </c>
+      <c r="C89" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="K89" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>flipper</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="J90" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="K90" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="B91" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>flock</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="I91" s="6" t="s">
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="K91" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="B92" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>flunk</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="I92" s="6" t="s">
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="K92" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="B93" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>foe</v>
+      </c>
+      <c r="C93" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-      <c r="I93" s="6" t="s">
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="K93" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="B94" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>France</v>
+      </c>
+      <c r="C94" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="I94" s="6" t="s">
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="K94" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="B95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>grin</v>
+      </c>
+      <c r="C95" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="I95" s="6" t="s">
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="K95" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="B96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>groan</v>
+      </c>
+      <c r="C96" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="I96" s="6" t="s">
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="K96" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B97" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>GUI</v>
+      </c>
+      <c r="C97" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="I97" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="K97" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B98" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gung-ho</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="I98" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="K98" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="B99" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>hoarding (UK)</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="I99" s="6" t="s">
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="K99" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="B100" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>house (houses)</v>
+      </c>
+      <c r="C100" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="I100" s="6" t="s">
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="K100" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="B101" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>housing</v>
+      </c>
+      <c r="C101" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="I101" s="6" t="s">
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="K101" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Hudson</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="I102" s="6" t="s">
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="K102" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="B103" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>incentive</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="I103" s="6" t="s">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="K103" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="B104" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>integer</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="I104" s="6" t="s">
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="K104" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="B105" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>intertwine</v>
+      </c>
+      <c r="C105" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="I105" s="6" t="s">
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="K105" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>java</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="I106" s="6" t="s">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="K106" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="B107" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>junk</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="I107" s="6" t="s">
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="K107" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="B108" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ladder</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="I108" s="6" t="s">
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="K108" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="B109" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>library</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="6" t="s">
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>library</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="B111" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>limb</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G111" s="6"/>
-      <c r="I111" s="6" t="s">
+      <c r="I111" s="6"/>
+      <c r="K111" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>limb</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="I112" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="I112" s="6" t="s">
+      <c r="K112" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>limb</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="I113" s="6" t="s">
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="K113" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>limb</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
-        <v>501</v>
-      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="I114" s="6" t="s">
+      <c r="K114" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="B115" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>loophole</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="I115" s="6" t="s">
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="K115" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="B116" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ludicrous</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="I116" s="6" t="s">
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="K116" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="J116" s="6"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="B117" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>maven</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="I117" s="6" t="s">
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="K117" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="B118" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>motto</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6" t="s">
+      <c r="F118" s="6"/>
+      <c r="G118" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6" t="s">
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="K118" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="B119" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>mutter</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="I119" s="6" t="s">
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="K119" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="B120" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>neat</v>
+      </c>
+      <c r="C120" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6" t="s">
+      <c r="F120" s="6"/>
+      <c r="G120" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="H120" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="I120" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H120" s="6" t="s">
+      <c r="J120" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="K120" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>neat</v>
+      </c>
+      <c r="C121" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6" t="s">
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="K121" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>neat</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="I122" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="K122" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>neat</v>
+      </c>
+      <c r="C123" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="I123" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H123" s="6" t="s">
+      <c r="J123" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="K123" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>neat</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="E124" s="6"/>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="I124" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H124" s="6" t="s">
+      <c r="J124" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="K124" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>neat</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="I125" s="6" t="s">
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="K125" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="B126" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>oath</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6"/>
+      <c r="G126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6" t="s">
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="K126" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="B127" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>obstacle</v>
+      </c>
+      <c r="C127" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="H127" s="6" t="s">
+      <c r="J127" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="K127" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>obstacle</v>
+      </c>
+      <c r="C128" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6" t="s">
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="J128" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="K128" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="B129" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>outcome</v>
+      </c>
+      <c r="C129" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="6" t="s">
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="I129" s="6" t="s">
+      <c r="K129" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="str">
+        <f t="shared" ref="B130:B193" si="4">IF(ISBLANK(A130),B129,A130)</f>
+        <v>outcome</v>
+      </c>
+      <c r="C130" s="6">
+        <f t="shared" ref="C130:C193" si="5">IF(ISBLANK(A130),C129+1,0)</f>
+        <v>1</v>
+      </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="6" t="s">
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="I130" s="6" t="s">
+      <c r="K130" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="B131" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>outlet</v>
+      </c>
+      <c r="C131" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="6"/>
+      <c r="G131" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6" t="s">
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="I131" s="6" t="s">
+      <c r="K131" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>outlet</v>
+      </c>
+      <c r="C132" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="6" t="s">
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="H132" s="6" t="s">
+      <c r="J132" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="I132" s="6" t="s">
+      <c r="K132" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6" t="s">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>outlet</v>
+      </c>
+      <c r="C133" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="I133" s="6" t="s">
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="K133" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="B134" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>passage</v>
+      </c>
+      <c r="C134" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="6"/>
+      <c r="G134" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6" t="s">
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="I134" s="6" t="s">
+      <c r="K134" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="B135" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>pawn</v>
+      </c>
+      <c r="C135" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6" t="s">
+      <c r="F135" s="6"/>
+      <c r="G135" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6" t="s">
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="K135" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>phase</v>
+      </c>
+      <c r="C136" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6" t="s">
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6" t="s">
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="K136" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="B137" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>platform</v>
+      </c>
+      <c r="C137" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="I137" s="6" t="s">
+      <c r="K137" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="B138" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>plummet</v>
+      </c>
+      <c r="C138" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6" t="s">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6" t="s">
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="I138" s="6" t="s">
+      <c r="K138" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6" t="s">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>plummet</v>
+      </c>
+      <c r="C139" s="6">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="6" t="s">
+      <c r="J139" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I139" s="6" t="s">
+      <c r="K139" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="B140" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>pragmatic</v>
+      </c>
+      <c r="C140" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="H140" s="6" t="s">
+      <c r="J140" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="K140" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="B141" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>probe</v>
+      </c>
+      <c r="C141" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="K141" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>probe</v>
+      </c>
+      <c r="C142" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6" t="s">
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="I142" s="6" t="s">
+      <c r="K142" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="B143" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>procedure</v>
+      </c>
+      <c r="C143" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6" t="s">
+      <c r="F143" s="6"/>
+      <c r="G143" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6" t="s">
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="I143" s="6" t="s">
+      <c r="K143" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="B144" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>program</v>
+      </c>
+      <c r="C144" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="I144" s="6" t="s">
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="K144" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C145" s="6" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>program</v>
+      </c>
+      <c r="C145" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="I145" s="6" t="s">
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="K145" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="B146" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>quirk</v>
+      </c>
+      <c r="C146" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6" t="s">
+      <c r="F146" s="6"/>
+      <c r="G146" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6" t="s">
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="I146" s="6" t="s">
+      <c r="K146" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="B147" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>raw</v>
+      </c>
+      <c r="C147" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="I147" s="6" t="s">
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="K147" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="B148" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>reassure</v>
+      </c>
+      <c r="C148" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="I148" s="6" t="s">
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="K148" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C149" s="6" t="s">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>reassure</v>
+      </c>
+      <c r="C149" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="I149" s="6" t="s">
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="K149" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="B150" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>reckless</v>
+      </c>
+      <c r="C150" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="H150" s="6" t="s">
+      <c r="J150" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="K150" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="B151" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>rehearsal</v>
+      </c>
+      <c r="C151" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6" t="s">
+      <c r="F151" s="6"/>
+      <c r="G151" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6" t="s">
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="I151" s="6" t="s">
+      <c r="K151" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>rehearsal</v>
+      </c>
+      <c r="C152" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="6" t="s">
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="K152" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="B153" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>release</v>
+      </c>
+      <c r="C153" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="I153" s="6" t="s">
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="K153" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="B154" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ripcord</v>
+      </c>
+      <c r="C154" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6" t="s">
+      <c r="F154" s="6"/>
+      <c r="G154" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6" t="s">
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="I154" s="6" t="s">
+      <c r="K154" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="B155" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>row</v>
+      </c>
+      <c r="C155" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="K155" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>row</v>
+      </c>
+      <c r="C156" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
-      <c r="G156" s="6" t="s">
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="J156" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="K156" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="B157" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>rug</v>
+      </c>
+      <c r="C157" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6" t="s">
+      <c r="F157" s="6"/>
+      <c r="G157" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6" t="s">
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="I157" s="6" t="s">
+      <c r="K157" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="B158" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>server</v>
+      </c>
+      <c r="C158" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="I158" s="6" t="s">
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="K158" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="B159" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>shiver</v>
+      </c>
+      <c r="C159" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6" t="s">
+      <c r="F159" s="6"/>
+      <c r="G159" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6" t="s">
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I159" s="6" t="s">
+      <c r="K159" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>shiver</v>
+      </c>
+      <c r="C160" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6" t="s">
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="I160" s="6" t="s">
+      <c r="K160" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="B161" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>shortcoming(s)</v>
+      </c>
+      <c r="C161" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="H161" s="6" t="s">
+      <c r="J161" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="I161" s="6" t="s">
+      <c r="K161" s="6" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="B162" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>shudder</v>
+      </c>
+      <c r="C162" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="K162" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>shudder</v>
+      </c>
+      <c r="C163" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="6" t="s">
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="I163" s="6" t="s">
+      <c r="K163" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="B164" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>source</v>
+      </c>
+      <c r="C164" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6" t="s">
+      <c r="F164" s="6"/>
+      <c r="G164" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6" t="s">
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="I164" s="6" t="s">
+      <c r="K164" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="B165" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>stealth</v>
+      </c>
+      <c r="C165" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="J165" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="K165" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="B166" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>stem</v>
+      </c>
+      <c r="C166" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="H166" s="6" t="s">
+      <c r="J166" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="K166" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>stem</v>
+      </c>
+      <c r="C167" s="6">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6" t="s">
+      <c r="G167" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I167" s="6" t="s">
+      <c r="K167" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="B168" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>stork</v>
+      </c>
+      <c r="C168" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
+      <c r="F168" s="6"/>
+      <c r="G168" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6" t="s">
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="K168" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="B169" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>stunning</v>
+      </c>
+      <c r="C169" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="I169" s="6" t="s">
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="K169" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="B170" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>subversion</v>
+      </c>
+      <c r="C170" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="I170" s="6" t="s">
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="K170" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="6" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>subversion</v>
+      </c>
+      <c r="C171" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="I171" s="6" t="s">
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="K171" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="B172" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>thumb</v>
+      </c>
+      <c r="C172" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
+      <c r="F172" s="6"/>
+      <c r="G172" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6" t="s">
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I172" s="6" t="s">
+      <c r="K172" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="B173" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>toe</v>
+      </c>
+      <c r="C173" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6" t="s">
+      <c r="F173" s="6"/>
+      <c r="G173" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6" t="s">
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="K173" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>tortoise</v>
+      </c>
+      <c r="C174" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="K174" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>tout</v>
+      </c>
+      <c r="C175" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="K175" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>tout</v>
+      </c>
+      <c r="C176" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="K176" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="B177" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>treadmill</v>
+      </c>
+      <c r="C177" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6" t="s">
+      <c r="F177" s="6"/>
+      <c r="G177" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6" t="s">
+      <c r="H177" s="6"/>
+      <c r="I177" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H174" s="6" t="s">
+      <c r="J177" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="K177" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>treadmill</v>
+      </c>
+      <c r="C178" s="6">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
+      <c r="G178" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="I178" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D179" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>tumble</v>
+      </c>
+      <c r="C179" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E179" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="I179" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>tumble</v>
+      </c>
+      <c r="C180" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E180" s="6"/>
       <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="I180" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G180" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="B181" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>turtle</v>
+      </c>
+      <c r="C181" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="I181" s="6" t="s">
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="K181" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="B182" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>upbringing</v>
+      </c>
+      <c r="C182" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6" t="s">
+      <c r="F182" s="6"/>
+      <c r="G182" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6" t="s">
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="I182" s="6" t="s">
+      <c r="K182" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="B183" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>upheaval</v>
+      </c>
+      <c r="C183" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6" t="s">
+      <c r="F183" s="6"/>
+      <c r="G183" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="I183" s="6" t="s">
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="K183" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="B184" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>uphold</v>
+      </c>
+      <c r="C184" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6" t="s">
+      <c r="F184" s="6"/>
+      <c r="G184" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="9" t="s">
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="I184" s="6" t="s">
+      <c r="K184" s="6" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6" t="s">
-        <v>394</v>
-      </c>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>uphold</v>
+      </c>
+      <c r="C185" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="K185" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="B186" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>variable</v>
+      </c>
+      <c r="C186" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="I186" s="6" t="s">
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="K186" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="B187" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wind</v>
+      </c>
+      <c r="C187" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6" t="s">
+      <c r="F187" s="6"/>
+      <c r="G187" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6" t="s">
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="I187" s="6" t="s">
+      <c r="K187" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="B188" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wind</v>
+      </c>
+      <c r="C188" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6" t="s">
+      <c r="F188" s="6"/>
+      <c r="G188" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="9" t="s">
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="I188" s="6" t="s">
+      <c r="K188" s="6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="B189" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>workstation</v>
+      </c>
+      <c r="C189" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-      <c r="I189" s="6" t="s">
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="K189" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="B190" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wound</v>
+      </c>
+      <c r="C190" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E190" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H190" s="6" t="s">
+      <c r="J190" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="I190" s="6" t="s">
+      <c r="K190" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="B191" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wound</v>
+      </c>
+      <c r="C191" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E191" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
-      <c r="I191" s="6" t="s">
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="K191" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wound</v>
+      </c>
+      <c r="C192" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
       <c r="I192" s="6"/>
+      <c r="K192" s="6"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wound</v>
+      </c>
+      <c r="C193" s="6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="str">
+        <f t="shared" ref="B194:B257" si="6">IF(ISBLANK(A194),B193,A194)</f>
+        <v>wound</v>
+      </c>
+      <c r="C194" s="6">
+        <f t="shared" ref="C194:C257" si="7">IF(ISBLANK(A194),C193+1,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C195" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C196" s="6">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C197" s="6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C198" s="6">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C199" s="6">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C200" s="6">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C201" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C202" s="6">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C203" s="6">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C204" s="6">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C205" s="6">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C206" s="6">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C207" s="6">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C208" s="6">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C209" s="6">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C210" s="6">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C211" s="6">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C212" s="6">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C213" s="6">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C214" s="6">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C215" s="6">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C216" s="6">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C217" s="6">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C218" s="6">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C219" s="6">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C220" s="6">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C221" s="6">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C222" s="6">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C223" s="6">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C224" s="6">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C225" s="6">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C226" s="6">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C227" s="6">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C228" s="6">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C229" s="6">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C230" s="6">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C231" s="6">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C232" s="6">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C233" s="6">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C234" s="6">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C235" s="6">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C236" s="6">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C237" s="6">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C238" s="6">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C239" s="6">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C240" s="6">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C241" s="6">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C242" s="6">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C243" s="6">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C244" s="6">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C245" s="6">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C246" s="6">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C247" s="6">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C248" s="6">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C249" s="6">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C250" s="6">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C251" s="6">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C252" s="6">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C253" s="6">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C254" s="6">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C255" s="6">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C256" s="6">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wound</v>
+      </c>
+      <c r="C257" s="6">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="6" t="str">
+        <f t="shared" ref="B258:B321" si="8">IF(ISBLANK(A258),B257,A258)</f>
+        <v>wound</v>
+      </c>
+      <c r="C258" s="6">
+        <f t="shared" ref="C258:C300" si="9">IF(ISBLANK(A258),C257+1,0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C259" s="6">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C260" s="6">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C261" s="6">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C262" s="6">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C263" s="6">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C264" s="6">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C265" s="6">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C266" s="6">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C267" s="6">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C268" s="6">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C269" s="6">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C270" s="6">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C271" s="6">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C272" s="6">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C273" s="6">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C274" s="6">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C275" s="6">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C276" s="6">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C277" s="6">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C278" s="6">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C279" s="6">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C280" s="6">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C281" s="6">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C282" s="6">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C283" s="6">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C284" s="6">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C285" s="6">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C286" s="6">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C287" s="6">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C288" s="6">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C289" s="6">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C290" s="6">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C291" s="6">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C292" s="6">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C293" s="6">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C294" s="6">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C295" s="6">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C296" s="6">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C297" s="6">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C298" s="6">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C299" s="6">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wound</v>
+      </c>
+      <c r="C300" s="6">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A192"/>
-  <conditionalFormatting sqref="A1:XFD51 A52:C52 E52:XFD52 A53:B55 D53:XFD55 A56:XFD1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <sortState ref="A2:K300">
+    <sortCondition ref="B2:B300"/>
+    <sortCondition ref="C2:C300"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:K1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(ROW()&gt;1,OR(ISBLANK($B1),ISBLANK($C1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(COUNTIF($A$1:$A1,"&lt;&gt;"),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(COUNTIF($A$1:$A53,"&lt;&gt;"),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/knowledge/data/input/Dictionary.xlsx
+++ b/knowledge/data/input/Dictionary.xlsx
@@ -14,14 +14,14 @@
     <sheet name="Phonetic" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dictionary!$A$1:$A$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dictionary!$A$1:$A$193</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="718">
   <si>
     <t>signification</t>
   </si>
@@ -2007,13 +2007,181 @@
   </si>
   <si>
     <t>obscuring of sun or moon</t>
+  </si>
+  <si>
+    <t>mistake</t>
+  </si>
+  <si>
+    <t>erreur, faute</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>adrift of</t>
+  </si>
+  <si>
+    <t>bargain</t>
+  </si>
+  <si>
+    <t>bounty</t>
+  </si>
+  <si>
+    <t>beacon</t>
+  </si>
+  <si>
+    <t>bloodshot</t>
+  </si>
+  <si>
+    <t>blossom</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>chambers</t>
+  </si>
+  <si>
+    <t>cheer up</t>
+  </si>
+  <si>
+    <t>cloak</t>
+  </si>
+  <si>
+    <t>deplete</t>
+  </si>
+  <si>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>divert</t>
+  </si>
+  <si>
+    <t>doohickey</t>
+  </si>
+  <si>
+    <t>dormant</t>
+  </si>
+  <si>
+    <t>earpiece</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>fleet</t>
+  </si>
+  <si>
+    <t>forfeit (n)</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>grunt</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>hamper</t>
+  </si>
+  <si>
+    <t>hatch</t>
+  </si>
+  <si>
+    <t>helluva</t>
+  </si>
+  <si>
+    <t>helmsman</t>
+  </si>
+  <si>
+    <t>litter (portée)</t>
+  </si>
+  <si>
+    <t>maneuver</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>platypus</t>
+  </si>
+  <si>
+    <t>plunder</t>
+  </si>
+  <si>
+    <t>raise (joindre)</t>
+  </si>
+  <si>
+    <t>reignite</t>
+  </si>
+  <si>
+    <t>rim</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>ruthless</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>sore</t>
+  </si>
+  <si>
+    <t>spare life</t>
+  </si>
+  <si>
+    <t>splatter</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>strangle</t>
+  </si>
+  <si>
+    <t>stray (égaré)</t>
+  </si>
+  <si>
+    <t>stunt</t>
+  </si>
+  <si>
+    <t>sway</t>
+  </si>
+  <si>
+    <t>tack</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>try (juger)</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>wayward</t>
+  </si>
+  <si>
+    <t>spill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2040,6 +2208,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2074,10 +2250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2088,8 +2265,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2404,17 +2584,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L300"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="7" bestFit="1" customWidth="1"/>
@@ -2458,7 +2638,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>484</v>
       </c>
       <c r="B2" s="6" t="str">
@@ -2483,7 +2663,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="6" t="str">
@@ -2552,7 +2732,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="6" t="str">
@@ -2578,7 +2758,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="6" t="str">
@@ -2638,7 +2818,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="6" t="str">
@@ -2708,7 +2888,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="6" t="str">
@@ -2808,7 +2988,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B17" s="6" t="str">
@@ -2831,7 +3011,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="6" t="str">
@@ -2880,7 +3060,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B20" s="6" t="str">
@@ -2931,7 +3111,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="6" t="str">
@@ -3026,7 +3206,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="6" t="str">
@@ -3054,7 +3234,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="6" t="str">
@@ -3082,7 +3262,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="6" t="str">
@@ -3156,7 +3336,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B31" s="6" t="str">
@@ -3184,7 +3364,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="6" t="str">
@@ -3205,7 +3385,7 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="6" t="str">
@@ -3256,7 +3436,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="6" t="str">
@@ -3303,7 +3483,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="6" t="str">
@@ -3353,7 +3533,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="6" t="str">
@@ -3426,7 +3606,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="6" t="str">
@@ -3475,7 +3655,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="10" t="s">
         <v>559</v>
       </c>
       <c r="B44" s="6" t="str">
@@ -3500,7 +3680,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B45" s="6" t="str">
@@ -3593,7 +3773,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B49" s="6" t="str">
@@ -3693,7 +3873,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="6" t="str">
@@ -3743,7 +3923,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B55" s="6" t="str">
@@ -3817,7 +3997,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="6" t="str">
@@ -3887,7 +4067,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B61" s="6" t="str">
@@ -3915,7 +4095,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="6" t="str">
@@ -3940,7 +4120,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B63" s="6" t="str">
@@ -3990,7 +4170,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B65" s="6" t="str">
@@ -4020,11 +4200,11 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="str">
-        <f t="shared" ref="B66:B129" si="2">IF(ISBLANK(A66),B65,A66)</f>
+        <f t="shared" ref="B66:B130" si="2">IF(ISBLANK(A66),B65,A66)</f>
         <v>directory</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" ref="C66:C129" si="3">IF(ISBLANK(A66),C65+1,0)</f>
+        <f t="shared" ref="C66:C130" si="3">IF(ISBLANK(A66),C65+1,0)</f>
         <v>1</v>
       </c>
       <c r="E66" s="6"/>
@@ -4040,7 +4220,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B67" s="6" t="str">
@@ -4109,7 +4289,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B70" s="6" t="str">
@@ -4253,7 +4433,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="6" t="str">
@@ -4281,7 +4461,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B77" s="6" t="str">
@@ -4304,7 +4484,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B78" s="6" t="str">
@@ -4327,7 +4507,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B79" s="6" t="str">
@@ -4424,7 +4604,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B83" s="6" t="str">
@@ -4439,66 +4619,69 @@
         <v>220</v>
       </c>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
+      <c r="J83" s="6" t="s">
+        <v>662</v>
+      </c>
       <c r="K83" s="6" t="s">
-        <v>365</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="B84" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>extreme</v>
+        <v>error</v>
       </c>
       <c r="C84" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>221</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
+      <c r="J84" s="6" t="s">
+        <v>664</v>
+      </c>
       <c r="K84" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="B85" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fizzle</v>
+        <v>extreme</v>
       </c>
       <c r="C85" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="K85" s="6" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>115</v>
+      <c r="A86" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B86" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fizzle out</v>
+        <v>fizzle</v>
       </c>
       <c r="C86" s="6">
         <f t="shared" si="3"/>
@@ -4512,548 +4695,553 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="K86" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B87" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>flaccid</v>
+        <v>fizzle out</v>
       </c>
       <c r="C87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="K87" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="B88" s="6" t="str">
         <f t="shared" si="2"/>
         <v>flaccid</v>
       </c>
       <c r="C88" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="K88" s="6" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="B89" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>flipper</v>
+        <v>flaccid</v>
       </c>
       <c r="C89" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>472</v>
+        <v>224</v>
       </c>
       <c r="F89" s="6"/>
-      <c r="G89" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="6" t="s">
-        <v>474</v>
-      </c>
       <c r="K89" s="6" t="s">
-        <v>473</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>471</v>
+      </c>
       <c r="B90" s="6" t="str">
         <f t="shared" si="2"/>
         <v>flipper</v>
       </c>
       <c r="C90" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E90" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>472</v>
+      </c>
       <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6" t="s">
-        <v>475</v>
-      </c>
+      <c r="G90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
       <c r="J90" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="B91" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>flock</v>
+        <v>flipper</v>
       </c>
       <c r="C91" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>225</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="H91" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="K91" s="6" t="s">
-        <v>318</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>118</v>
+      <c r="A92" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B92" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>flunk</v>
+        <v>flock</v>
       </c>
       <c r="C92" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="K92" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>119</v>
+      <c r="A93" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B93" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>foe</v>
+        <v>flunk</v>
       </c>
       <c r="C93" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="K93" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>120</v>
+      <c r="A94" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B94" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>France</v>
+        <v>foe</v>
       </c>
       <c r="C94" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="K94" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>121</v>
+      <c r="A95" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B95" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>grin</v>
+        <v>France</v>
       </c>
       <c r="C95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="K95" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>122</v>
+      <c r="A96" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B96" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>groan</v>
+        <v>grin</v>
       </c>
       <c r="C96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="K96" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>124</v>
+      <c r="A97" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B97" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>GUI</v>
+        <v>groan</v>
       </c>
       <c r="C97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="K97" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B98" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>gung-ho</v>
+        <v>GUI</v>
       </c>
       <c r="C98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>125</v>
+      <c r="A99" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B99" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>hoarding (UK)</v>
+        <v>gung-ho</v>
       </c>
       <c r="C99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="K99" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>126</v>
+      <c r="A100" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B100" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>house (houses)</v>
+        <v>hoarding (UK)</v>
       </c>
       <c r="C100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="K100" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>127</v>
+      <c r="A101" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B101" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>housing</v>
+        <v>house (houses)</v>
       </c>
       <c r="C101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="K101" s="6" t="s">
-        <v>69</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>128</v>
+      <c r="A102" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B102" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Hudson</v>
+        <v>housing</v>
       </c>
       <c r="C102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="K102" s="6" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>129</v>
+      <c r="A103" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B103" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>incentive</v>
+        <v>Hudson</v>
       </c>
       <c r="C103" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="K103" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>130</v>
+      <c r="A104" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B104" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>integer</v>
+        <v>incentive</v>
       </c>
       <c r="C104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="K104" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>131</v>
+      <c r="A105" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B105" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>intertwine</v>
+        <v>integer</v>
       </c>
       <c r="C105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="K105" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>132</v>
+      <c r="A106" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B106" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>java</v>
+        <v>intertwine</v>
       </c>
       <c r="C106" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="K106" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>133</v>
+      <c r="A107" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B107" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>junk</v>
+        <v>java</v>
       </c>
       <c r="C107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="K107" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>134</v>
+      <c r="A108" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B108" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>ladder</v>
+        <v>junk</v>
       </c>
       <c r="C108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="K108" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>135</v>
+      <c r="A109" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B109" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>library</v>
+        <v>ladder</v>
       </c>
       <c r="C109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="K109" s="6"/>
+      <c r="K109" s="6" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="B110" s="6" t="str">
         <f t="shared" si="2"/>
         <v>library</v>
       </c>
       <c r="C110" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -5062,50 +5250,46 @@
       <c r="K110" s="6"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="B111" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>limb</v>
+        <v>library</v>
       </c>
       <c r="C111" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="6" t="s">
-        <v>490</v>
-      </c>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
-      <c r="K111" s="6" t="s">
-        <v>491</v>
-      </c>
+      <c r="K111" s="6"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="B112" s="6" t="str">
         <f t="shared" si="2"/>
         <v>limb</v>
       </c>
       <c r="C112" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E112" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>494</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="I112" s="6"/>
       <c r="K112" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -5115,18 +5299,19 @@
       </c>
       <c r="C113" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>498</v>
+        <v>1</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
+      <c r="H113" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="K113" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -5136,203 +5321,203 @@
       </c>
       <c r="C114" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>504</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="6" t="s">
-        <v>501</v>
-      </c>
+      <c r="H114" s="6"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="6" t="s">
-        <v>502</v>
-      </c>
       <c r="K114" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="B115" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>loophole</v>
+        <v>limb</v>
       </c>
       <c r="C115" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>246</v>
+        <v>504</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="H115" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="I115" s="6"/>
+      <c r="J115" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="K115" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="L115" s="6"/>
+        <v>503</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>138</v>
+      <c r="A116" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B116" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>ludicrous</v>
+        <v>loophole</v>
       </c>
       <c r="C116" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="K116" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L116" s="6"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>139</v>
+      <c r="A117" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B117" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>maven</v>
+        <v>ludicrous</v>
       </c>
       <c r="C117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L117" s="6"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>140</v>
+      <c r="A118" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B118" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>motto</v>
+        <v>maven</v>
       </c>
       <c r="C118" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F118" s="6"/>
-      <c r="G118" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="K118" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L118" s="6"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>141</v>
+      <c r="A119" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B119" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>mutter</v>
+        <v>motto</v>
       </c>
       <c r="C119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="G119" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
+      <c r="J119" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="K119" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L119" s="6"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>142</v>
+      <c r="A120" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B120" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>neat</v>
+        <v>mutter</v>
       </c>
       <c r="C120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F120" s="6"/>
-      <c r="G120" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
       <c r="K120" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L120" s="6"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="B121" s="6" t="str">
         <f t="shared" si="2"/>
         <v>neat</v>
       </c>
       <c r="C121" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E121" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="I121" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L121" s="6"/>
     </row>
@@ -5343,19 +5528,17 @@
       </c>
       <c r="C122" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="6" t="s">
-        <v>524</v>
-      </c>
+      <c r="H122" s="6"/>
       <c r="I122" s="6" t="s">
-        <v>409</v>
+        <v>69</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="L122" s="6"/>
     </row>
@@ -5366,22 +5549,19 @@
       </c>
       <c r="C123" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>342</v>
+        <v>525</v>
       </c>
       <c r="L123" s="6"/>
     </row>
@@ -5392,22 +5572,22 @@
       </c>
       <c r="C124" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -5418,199 +5598,201 @@
       </c>
       <c r="C125" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="H125" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="K125" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L125" s="6"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="B126" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>oath</v>
+        <v>neat</v>
       </c>
       <c r="C126" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>252</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="K126" s="6" t="s">
-        <v>343</v>
+        <v>488</v>
       </c>
       <c r="L126" s="6"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>144</v>
+      <c r="A127" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B127" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>obstacle</v>
+        <v>oath</v>
       </c>
       <c r="C127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H127" s="6"/>
-      <c r="I127" s="6" t="s">
-        <v>469</v>
-      </c>
+      <c r="I127" s="6"/>
       <c r="J127" s="6" t="s">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="K127" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L127" s="6"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="str">
         <f t="shared" si="2"/>
         <v>obstacle</v>
       </c>
       <c r="C128" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E128" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>384</v>
+        <v>144</v>
       </c>
       <c r="L128" s="6"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="B129" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>outcome</v>
+        <v>obstacle</v>
       </c>
       <c r="C129" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>254</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L129" s="6"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="B130" s="6" t="str">
-        <f t="shared" ref="B130:B193" si="4">IF(ISBLANK(A130),B129,A130)</f>
+        <f t="shared" si="2"/>
         <v>outcome</v>
       </c>
       <c r="C130" s="6">
-        <f t="shared" ref="C130:C193" si="5">IF(ISBLANK(A130),C129+1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E130" s="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="str">
+        <f t="shared" ref="B131:B194" si="4">IF(ISBLANK(A131),B130,A131)</f>
+        <v>outcome</v>
+      </c>
+      <c r="C131" s="6">
+        <f t="shared" ref="C131:C194" si="5">IF(ISBLANK(A131),C130+1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="K130" s="6" t="s">
+      <c r="K131" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="L130" s="6"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B131" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>outlet</v>
-      </c>
-      <c r="C131" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="L131" s="6"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="str">
         <f t="shared" si="4"/>
         <v>outlet</v>
       </c>
       <c r="C132" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E132" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H132" s="6"/>
-      <c r="I132" s="6" t="s">
-        <v>396</v>
-      </c>
+      <c r="I132" s="6"/>
       <c r="J132" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L132" s="6"/>
     </row>
@@ -5621,63 +5803,58 @@
       </c>
       <c r="C133" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="I133" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="K133" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L133" s="6"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="B134" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>passage</v>
+        <v>outlet</v>
       </c>
       <c r="C134" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>256</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6" t="s">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="K134" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L134" s="6"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>148</v>
+      <c r="A135" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="B135" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>pawn</v>
+        <v>passage</v>
       </c>
       <c r="C135" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6" t="s">
@@ -5686,27 +5863,27 @@
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L135" s="6"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>149</v>
+      <c r="A136" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B136" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>phase</v>
+        <v>pawn</v>
       </c>
       <c r="C136" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6" t="s">
@@ -5715,945 +5892,946 @@
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L136" s="6"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>150</v>
+      <c r="A137" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="B137" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>platform</v>
+        <v>phase</v>
       </c>
       <c r="C137" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H137" s="6"/>
-      <c r="I137" s="6" t="s">
-        <v>403</v>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>151</v>
+      <c r="A138" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B138" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>plummet</v>
+        <v>platform</v>
       </c>
       <c r="C138" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6" t="s">
-        <v>406</v>
+      <c r="I138" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L138" s="6"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="B139" s="6" t="str">
         <f t="shared" si="4"/>
         <v>plummet</v>
       </c>
       <c r="C139" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E139" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H139" s="6"/>
-      <c r="I139" s="6" t="s">
-        <v>383</v>
-      </c>
+      <c r="I139" s="6"/>
       <c r="J139" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L139" s="6"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="B140" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>pragmatic</v>
+        <v>plummet</v>
       </c>
       <c r="C140" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>261</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L140" s="6"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>153</v>
+      <c r="A141" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="B141" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>probe</v>
+        <v>pragmatic</v>
       </c>
       <c r="C141" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>413</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="B142" s="6" t="str">
         <f t="shared" si="4"/>
         <v>probe</v>
       </c>
       <c r="C142" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E142" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6" t="s">
-        <v>414</v>
+      <c r="I142" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="B143" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>procedure</v>
+        <v>probe</v>
       </c>
       <c r="C143" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>155</v>
+      <c r="A144" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="B144" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>program</v>
+        <v>procedure</v>
       </c>
       <c r="C144" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="G144" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
+      <c r="J144" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="K144" s="6" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="B145" s="6" t="str">
         <f t="shared" si="4"/>
         <v>program</v>
       </c>
       <c r="C145" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="K145" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="B146" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>quirk</v>
+        <v>program</v>
       </c>
       <c r="C146" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F146" s="6"/>
-      <c r="G146" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="K146" s="6" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>157</v>
+      <c r="A147" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="B147" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>raw</v>
+        <v>quirk</v>
       </c>
       <c r="C147" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
+      <c r="J147" s="6" t="s">
+        <v>418</v>
+      </c>
       <c r="K147" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>158</v>
+      <c r="A148" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B148" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>reassure</v>
+        <v>raw</v>
       </c>
       <c r="C148" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
       <c r="K148" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="B149" s="6" t="str">
         <f t="shared" si="4"/>
         <v>reassure</v>
       </c>
       <c r="C149" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="K149" s="6" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="B150" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>reckless</v>
+        <v>reassure</v>
       </c>
       <c r="C150" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F150" s="6"/>
-      <c r="G150" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G150" s="6"/>
       <c r="H150" s="6"/>
-      <c r="I150" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>419</v>
-      </c>
+      <c r="I150" s="6"/>
       <c r="K150" s="6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>160</v>
+      <c r="A151" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="B151" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>rehearsal</v>
+        <v>reckless</v>
       </c>
       <c r="C151" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
+      <c r="I151" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="J151" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="B152" s="6" t="str">
         <f t="shared" si="4"/>
         <v>rehearsal</v>
       </c>
       <c r="C152" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E152" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
+      <c r="G152" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H152" s="6"/>
-      <c r="I152" s="6" t="s">
-        <v>423</v>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="B153" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>release</v>
+        <v>rehearsal</v>
       </c>
       <c r="C153" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>272</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
+      <c r="I153" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="K153" s="6" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>162</v>
+      <c r="A154" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="B154" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>ripcord</v>
+        <v>release</v>
       </c>
       <c r="C154" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F154" s="6"/>
-      <c r="G154" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
-      <c r="J154" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="K154" s="6" t="s">
-        <v>426</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>163</v>
+      <c r="A155" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B155" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>row</v>
+        <v>ripcord</v>
       </c>
       <c r="C155" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H155" s="6"/>
-      <c r="I155" s="6" t="s">
-        <v>427</v>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="B156" s="6" t="str">
         <f t="shared" si="4"/>
         <v>row</v>
       </c>
       <c r="C156" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E156" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
+      <c r="G156" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="B157" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>rug</v>
+        <v>row</v>
       </c>
       <c r="C157" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>275</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G157" s="6"/>
       <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
+      <c r="I157" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="J157" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>165</v>
+      <c r="A158" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B158" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>server</v>
+        <v>rug</v>
       </c>
       <c r="C158" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+      <c r="G158" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
+      <c r="J158" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="K158" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>166</v>
+      <c r="A159" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="B159" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>shiver</v>
+        <v>server</v>
       </c>
       <c r="C159" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F159" s="6"/>
-      <c r="G159" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="K159" s="6" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="B160" s="6" t="str">
         <f t="shared" si="4"/>
         <v>shiver</v>
       </c>
       <c r="C160" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E160" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="B161" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>shortcoming(s)</v>
+        <v>shiver</v>
       </c>
       <c r="C161" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>278</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H161" s="6"/>
-      <c r="I161" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="I161" s="6"/>
       <c r="J161" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>167</v>
+      <c r="A162" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="B162" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>shudder</v>
+        <v>shortcoming(s)</v>
       </c>
       <c r="C162" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="B163" s="6" t="str">
         <f t="shared" si="4"/>
         <v>shudder</v>
       </c>
       <c r="C163" s="6">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="B164" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>source</v>
+        <v>shudder</v>
       </c>
       <c r="C164" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>280</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G164" s="6"/>
       <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6" t="s">
-        <v>444</v>
+      <c r="I164" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="K164" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="B165" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>stealth</v>
+        <v>source</v>
       </c>
       <c r="C165" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H165" s="6"/>
-      <c r="I165" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="I165" s="6"/>
       <c r="J165" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>350</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>170</v>
+      <c r="A166" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="B166" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>stem</v>
+        <v>stealth</v>
       </c>
       <c r="C166" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H166" s="6"/>
       <c r="I166" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="B167" s="6" t="str">
         <f t="shared" si="4"/>
         <v>stem</v>
       </c>
       <c r="C167" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E167" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
+      <c r="I167" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="J167" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="B168" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>stork</v>
+        <v>stem</v>
       </c>
       <c r="C168" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>282</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>172</v>
+      <c r="A169" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B169" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>stunning</v>
+        <v>stork</v>
       </c>
       <c r="C169" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
+      <c r="G169" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
+      <c r="J169" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="K169" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>173</v>
+      <c r="A170" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="B170" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>subversion</v>
+        <v>stunning</v>
       </c>
       <c r="C170" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
       <c r="K170" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="B171" s="6" t="str">
         <f t="shared" si="4"/>
         <v>subversion</v>
       </c>
       <c r="C171" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="K171" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="B172" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>thumb</v>
+        <v>subversion</v>
       </c>
       <c r="C172" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F172" s="6"/>
-      <c r="G172" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
-      <c r="J172" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="K172" s="6" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>175</v>
+      <c r="A173" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B173" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>toe</v>
+        <v>thumb</v>
       </c>
       <c r="C173" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6" t="s">
@@ -6662,178 +6840,183 @@
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>178</v>
+      <c r="A174" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B174" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>tortoise</v>
+        <v>toe</v>
       </c>
       <c r="C174" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
+      <c r="G174" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
+      <c r="J174" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="K174" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>179</v>
+      <c r="A175" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B175" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>tout</v>
+        <v>tortoise</v>
       </c>
       <c r="C175" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F175" s="6"/>
-      <c r="G175" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="G175" s="6"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="K175" s="6" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="B176" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tout</v>
       </c>
       <c r="C176" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E176" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6" t="s">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
       <c r="K176" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="B177" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>treadmill</v>
+        <v>tout</v>
       </c>
       <c r="C177" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>288</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6" t="s">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="H177" s="6"/>
-      <c r="I177" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="J177" s="6" t="s">
-        <v>309</v>
-      </c>
+      <c r="I177" s="6"/>
       <c r="K177" s="6" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="B178" s="6" t="str">
         <f t="shared" si="4"/>
         <v>treadmill</v>
       </c>
       <c r="C178" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E178" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H178" s="6" t="s">
-        <v>522</v>
-      </c>
+      <c r="H178" s="6"/>
       <c r="I178" s="6" t="s">
-        <v>523</v>
+        <v>302</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="B179" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>tumble</v>
+        <v>treadmill</v>
       </c>
       <c r="C179" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="J179" s="6" t="s">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>455</v>
+        <v>375</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="B180" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tumble</v>
       </c>
       <c r="C180" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E180" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
@@ -6841,74 +7024,69 @@
         <v>454</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="B181" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>turtle</v>
+        <v>tumble</v>
       </c>
       <c r="C181" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
+      <c r="G181" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
+      <c r="J181" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="K181" s="6" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>181</v>
+      <c r="A182" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B182" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>upbringing</v>
+        <v>turtle</v>
       </c>
       <c r="C182" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F182" s="6"/>
-      <c r="G182" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G182" s="6"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
-      <c r="J182" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="K182" s="6" t="s">
-        <v>377</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>182</v>
+      <c r="A183" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="B183" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>upheaval</v>
+        <v>upbringing</v>
       </c>
       <c r="C183" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6" t="s">
@@ -6916,113 +7094,113 @@
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
+      <c r="J183" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="K183" s="6" t="s">
-        <v>459</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>183</v>
+      <c r="A184" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="B184" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>uphold</v>
+        <v>upheaval</v>
       </c>
       <c r="C184" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6" t="s">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
-      <c r="J184" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="K184" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="B185" s="6" t="str">
         <f t="shared" si="4"/>
         <v>uphold</v>
       </c>
       <c r="C185" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E185" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6" t="s">
         <v>394</v>
       </c>
       <c r="H185" s="6"/>
-      <c r="I185" s="6" t="s">
-        <v>463</v>
+      <c r="I185" s="6"/>
+      <c r="J185" s="9" t="s">
+        <v>462</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="B186" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>variable</v>
+        <v>uphold</v>
       </c>
       <c r="C186" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>296</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
+      <c r="G186" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
+      <c r="I186" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="K186" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="B187" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>wind</v>
+        <v>variable</v>
       </c>
       <c r="C187" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F187" s="6"/>
-      <c r="G187" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G187" s="6"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
-      <c r="J187" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="K187" s="6" t="s">
-        <v>378</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="10" t="s">
         <v>185</v>
       </c>
       <c r="B188" s="6" t="str">
@@ -7034,76 +7212,74 @@
         <v>0</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6" t="s">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
-      <c r="J188" s="9" t="s">
-        <v>467</v>
+      <c r="J188" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>186</v>
+      <c r="A189" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="B189" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>workstation</v>
+        <v>wind</v>
       </c>
       <c r="C189" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
+      <c r="G189" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
+      <c r="J189" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="K189" s="6" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>187</v>
+      <c r="A190" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="B190" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>wound</v>
+        <v>workstation</v>
       </c>
       <c r="C190" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F190" s="6"/>
-      <c r="G190" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
-      <c r="I190" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="J190" s="6" t="s">
-        <v>465</v>
-      </c>
+      <c r="I190" s="6"/>
       <c r="K190" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B191" s="6" t="str">
@@ -7115,1116 +7291,1304 @@
         <v>0</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
+      <c r="G191" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
+      <c r="I191" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="K191" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="B192" s="6" t="str">
         <f t="shared" si="4"/>
         <v>wound</v>
       </c>
       <c r="C192" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E192" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
-      <c r="K192" s="6"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="K192" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B193" s="6" t="str">
         <f t="shared" si="4"/>
         <v>wound</v>
       </c>
       <c r="C193" s="6">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="K193" s="6"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>wound</v>
+      </c>
+      <c r="C194" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="6" t="str">
-        <f t="shared" ref="B194:B257" si="6">IF(ISBLANK(A194),B193,A194)</f>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="str">
+        <f t="shared" ref="B195:B258" si="6">IF(ISBLANK(A195),B194,A195)</f>
         <v>wound</v>
       </c>
-      <c r="C194" s="6">
-        <f t="shared" ref="C194:C257" si="7">IF(ISBLANK(A194),C193+1,0)</f>
+      <c r="C195" s="6">
+        <f t="shared" ref="C195:C258" si="7">IF(ISBLANK(A195),C194+1,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="6" t="str">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B196" s="6" t="str">
+        <f>IF(ISBLANK(A196),B195,A196)</f>
+        <v>adrift of</v>
+      </c>
+      <c r="C196" s="6">
+        <f>IF(ISBLANK(A196),C195+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B197" s="6" t="str">
+        <f>IF(ISBLANK(A197),B196,A197)</f>
+        <v>bargain</v>
+      </c>
+      <c r="C197" s="6">
+        <f>IF(ISBLANK(A197),C196+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B198" s="6" t="str">
+        <f>IF(ISBLANK(A198),B197,A198)</f>
+        <v>beacon</v>
+      </c>
+      <c r="C198" s="6">
+        <f>IF(ISBLANK(A198),C197+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B199" s="6" t="str">
+        <f>IF(ISBLANK(A199),B198,A199)</f>
+        <v>bloodshot</v>
+      </c>
+      <c r="C199" s="6">
+        <f>IF(ISBLANK(A199),C198+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B200" s="6" t="str">
+        <f>IF(ISBLANK(A200),B199,A200)</f>
+        <v>blossom</v>
+      </c>
+      <c r="C200" s="6">
+        <f>IF(ISBLANK(A200),C199+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B201" s="6" t="str">
+        <f>IF(ISBLANK(A201),B200,A201)</f>
+        <v>bond</v>
+      </c>
+      <c r="C201" s="6">
+        <f>IF(ISBLANK(A201),C200+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B202" s="6" t="str">
+        <f>IF(ISBLANK(A202),B201,A202)</f>
+        <v>bounty</v>
+      </c>
+      <c r="C202" s="6">
+        <f>IF(ISBLANK(A202),C201+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B203" s="6" t="str">
+        <f>IF(ISBLANK(A203),B202,A203)</f>
+        <v>chambers</v>
+      </c>
+      <c r="C203" s="6">
+        <f>IF(ISBLANK(A203),C202+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B204" s="6" t="str">
+        <f>IF(ISBLANK(A204),B203,A204)</f>
+        <v>cheer up</v>
+      </c>
+      <c r="C204" s="6">
+        <f>IF(ISBLANK(A204),C203+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B205" s="6" t="str">
+        <f>IF(ISBLANK(A205),B204,A205)</f>
+        <v>cloak</v>
+      </c>
+      <c r="C205" s="6">
+        <f>IF(ISBLANK(A205),C204+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B206" s="6" t="str">
+        <f>IF(ISBLANK(A206),B205,A206)</f>
+        <v>deplete</v>
+      </c>
+      <c r="C206" s="6">
+        <f>IF(ISBLANK(A206),C205+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B207" s="6" t="str">
+        <f>IF(ISBLANK(A207),B206,A207)</f>
+        <v>disrupt</v>
+      </c>
+      <c r="C207" s="6">
+        <f>IF(ISBLANK(A207),C206+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B208" s="6" t="str">
+        <f>IF(ISBLANK(A208),B207,A208)</f>
+        <v>divert</v>
+      </c>
+      <c r="C208" s="6">
+        <f>IF(ISBLANK(A208),C207+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B209" s="6" t="str">
+        <f>IF(ISBLANK(A209),B208,A209)</f>
+        <v>doohickey</v>
+      </c>
+      <c r="C209" s="6">
+        <f>IF(ISBLANK(A209),C208+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B210" s="6" t="str">
+        <f>IF(ISBLANK(A210),B209,A210)</f>
+        <v>dormant</v>
+      </c>
+      <c r="C210" s="6">
+        <f>IF(ISBLANK(A210),C209+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B211" s="6" t="str">
+        <f>IF(ISBLANK(A211),B210,A211)</f>
+        <v>earpiece</v>
+      </c>
+      <c r="C211" s="6">
+        <f>IF(ISBLANK(A211),C210+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B212" s="6" t="str">
+        <f>IF(ISBLANK(A212),B211,A212)</f>
+        <v>finite</v>
+      </c>
+      <c r="C212" s="6">
+        <f>IF(ISBLANK(A212),C211+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B213" s="6" t="str">
+        <f>IF(ISBLANK(A213),B212,A213)</f>
+        <v>fleet</v>
+      </c>
+      <c r="C213" s="6">
+        <f>IF(ISBLANK(A213),C212+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B214" s="6" t="str">
+        <f>IF(ISBLANK(A214),B213,A214)</f>
+        <v>forfeit (n)</v>
+      </c>
+      <c r="C214" s="6">
+        <f>IF(ISBLANK(A214),C213+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B215" s="6" t="str">
+        <f>IF(ISBLANK(A215),B214,A215)</f>
+        <v>gear</v>
+      </c>
+      <c r="C215" s="6">
+        <f>IF(ISBLANK(A215),C214+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B216" s="6" t="str">
+        <f>IF(ISBLANK(A216),B215,A216)</f>
+        <v>grunt</v>
+      </c>
+      <c r="C216" s="6">
+        <f>IF(ISBLANK(A216),C215+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B217" s="6" t="str">
+        <f>IF(ISBLANK(A217),B216,A217)</f>
+        <v>gut</v>
+      </c>
+      <c r="C217" s="6">
+        <f>IF(ISBLANK(A217),C216+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B218" s="6" t="str">
+        <f>IF(ISBLANK(A218),B217,A218)</f>
+        <v>hamper</v>
+      </c>
+      <c r="C218" s="6">
+        <f>IF(ISBLANK(A218),C217+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B219" s="6" t="str">
+        <f>IF(ISBLANK(A219),B218,A219)</f>
+        <v>hatch</v>
+      </c>
+      <c r="C219" s="6">
+        <f>IF(ISBLANK(A219),C218+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B220" s="6" t="str">
+        <f>IF(ISBLANK(A220),B219,A220)</f>
+        <v>helluva</v>
+      </c>
+      <c r="C220" s="6">
+        <f>IF(ISBLANK(A220),C219+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B221" s="6" t="str">
+        <f>IF(ISBLANK(A221),B220,A221)</f>
+        <v>helmsman</v>
+      </c>
+      <c r="C221" s="6">
+        <f>IF(ISBLANK(A221),C220+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B222" s="6" t="str">
+        <f>IF(ISBLANK(A222),B221,A222)</f>
+        <v>litter (portée)</v>
+      </c>
+      <c r="C222" s="6">
+        <f>IF(ISBLANK(A222),C221+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B223" s="6" t="str">
+        <f>IF(ISBLANK(A223),B222,A223)</f>
+        <v>maneuver</v>
+      </c>
+      <c r="C223" s="6">
+        <f>IF(ISBLANK(A223),C222+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B224" s="6" t="str">
+        <f>IF(ISBLANK(A224),B223,A224)</f>
+        <v>ore</v>
+      </c>
+      <c r="C224" s="6">
+        <f>IF(ISBLANK(A224),C223+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B225" s="6" t="str">
+        <f>IF(ISBLANK(A225),B224,A225)</f>
+        <v>patch</v>
+      </c>
+      <c r="C225" s="6">
+        <f>IF(ISBLANK(A225),C224+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B226" s="6" t="str">
+        <f>IF(ISBLANK(A226),B225,A226)</f>
+        <v>platypus</v>
+      </c>
+      <c r="C226" s="6">
+        <f>IF(ISBLANK(A226),C225+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B227" s="6" t="str">
+        <f>IF(ISBLANK(A227),B226,A227)</f>
+        <v>plunder</v>
+      </c>
+      <c r="C227" s="6">
+        <f>IF(ISBLANK(A227),C226+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B228" s="6" t="str">
+        <f>IF(ISBLANK(A228),B227,A228)</f>
+        <v>raise (joindre)</v>
+      </c>
+      <c r="C228" s="6">
+        <f>IF(ISBLANK(A228),C227+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B229" s="6" t="str">
+        <f>IF(ISBLANK(A229),B228,A229)</f>
+        <v>reignite</v>
+      </c>
+      <c r="C229" s="6">
+        <f>IF(ISBLANK(A229),C228+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B230" s="6" t="str">
+        <f>IF(ISBLANK(A230),B229,A230)</f>
+        <v>rim</v>
+      </c>
+      <c r="C230" s="6">
+        <f>IF(ISBLANK(A230),C229+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B231" s="6" t="str">
+        <f>IF(ISBLANK(A231),B230,A231)</f>
+        <v>rip</v>
+      </c>
+      <c r="C231" s="6">
+        <f>IF(ISBLANK(A231),C230+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B232" s="6" t="str">
+        <f>IF(ISBLANK(A232),B231,A232)</f>
+        <v>ruthless</v>
+      </c>
+      <c r="C232" s="6">
+        <f>IF(ISBLANK(A232),C231+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B233" s="6" t="str">
+        <f>IF(ISBLANK(A233),B232,A233)</f>
+        <v>shatter</v>
+      </c>
+      <c r="C233" s="6">
+        <f>IF(ISBLANK(A233),C232+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B234" s="6" t="str">
+        <f>IF(ISBLANK(A234),B233,A234)</f>
+        <v>sneak</v>
+      </c>
+      <c r="C234" s="6">
+        <f>IF(ISBLANK(A234),C233+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B235" s="6" t="str">
+        <f>IF(ISBLANK(A235),B234,A235)</f>
+        <v>sore</v>
+      </c>
+      <c r="C235" s="6">
+        <f>IF(ISBLANK(A235),C234+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B236" s="6" t="str">
+        <f>IF(ISBLANK(A236),B235,A236)</f>
+        <v>spare life</v>
+      </c>
+      <c r="C236" s="6">
+        <f>IF(ISBLANK(A236),C235+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B237" s="6" t="str">
+        <f>IF(ISBLANK(A237),B236,A237)</f>
+        <v>spill</v>
+      </c>
+      <c r="C237" s="6">
+        <f>IF(ISBLANK(A237),C236+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B238" s="6" t="str">
+        <f>IF(ISBLANK(A238),B237,A238)</f>
+        <v>splatter</v>
+      </c>
+      <c r="C238" s="6">
+        <f>IF(ISBLANK(A238),C237+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B239" s="6" t="str">
+        <f>IF(ISBLANK(A239),B238,A239)</f>
+        <v>steer</v>
+      </c>
+      <c r="C239" s="6">
+        <f>IF(ISBLANK(A239),C238+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B240" s="6" t="str">
+        <f>IF(ISBLANK(A240),B239,A240)</f>
+        <v>strangle</v>
+      </c>
+      <c r="C240" s="6">
+        <f>IF(ISBLANK(A240),C239+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B241" s="6" t="str">
+        <f>IF(ISBLANK(A241),B240,A241)</f>
+        <v>stray (égaré)</v>
+      </c>
+      <c r="C241" s="6">
+        <f>IF(ISBLANK(A241),C240+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B242" s="6" t="str">
+        <f>IF(ISBLANK(A242),B241,A242)</f>
+        <v>stunt</v>
+      </c>
+      <c r="C242" s="6">
+        <f>IF(ISBLANK(A242),C241+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B243" s="6" t="str">
+        <f>IF(ISBLANK(A243),B242,A243)</f>
+        <v>sway</v>
+      </c>
+      <c r="C243" s="6">
+        <f>IF(ISBLANK(A243),C242+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B244" s="6" t="str">
+        <f>IF(ISBLANK(A244),B243,A244)</f>
+        <v>tack</v>
+      </c>
+      <c r="C244" s="6">
+        <f>IF(ISBLANK(A244),C243+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B245" s="6" t="str">
+        <f>IF(ISBLANK(A245),B244,A245)</f>
+        <v>tap</v>
+      </c>
+      <c r="C245" s="6">
+        <f>IF(ISBLANK(A245),C244+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B246" s="6" t="str">
+        <f>IF(ISBLANK(A246),B245,A246)</f>
+        <v>thrust</v>
+      </c>
+      <c r="C246" s="6">
+        <f>IF(ISBLANK(A246),C245+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B247" s="6" t="str">
+        <f>IF(ISBLANK(A247),B246,A247)</f>
+        <v>try (juger)</v>
+      </c>
+      <c r="C247" s="6">
+        <f>IF(ISBLANK(A247),C246+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B248" s="6" t="str">
+        <f>IF(ISBLANK(A248),B247,A248)</f>
+        <v>wayward</v>
+      </c>
+      <c r="C248" s="6">
+        <f>IF(ISBLANK(A248),C247+1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C195" s="6">
+        <v>wayward</v>
+      </c>
+      <c r="C249" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wayward</v>
+      </c>
+      <c r="C250" s="6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wayward</v>
+      </c>
+      <c r="C251" s="6">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>wayward</v>
+      </c>
+      <c r="C252" s="6">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="str">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C196" s="6">
+        <v>wayward</v>
+      </c>
+      <c r="C253" s="6">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="6" t="str">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C197" s="6">
+        <v>wayward</v>
+      </c>
+      <c r="C254" s="6">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="6" t="str">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C198" s="6">
+        <v>wayward</v>
+      </c>
+      <c r="C255" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="6" t="str">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C199" s="6">
+        <v>wayward</v>
+      </c>
+      <c r="C256" s="6">
         <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C200" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C201" s="6">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C202" s="6">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C203" s="6">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C204" s="6">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C205" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C206" s="6">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C207" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C208" s="6">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C209" s="6">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C210" s="6">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C211" s="6">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C212" s="6">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C213" s="6">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C214" s="6">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C215" s="6">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C216" s="6">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C217" s="6">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C218" s="6">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C219" s="6">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C220" s="6">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C221" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C222" s="6">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C223" s="6">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C224" s="6">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C225" s="6">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C226" s="6">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C227" s="6">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C228" s="6">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C229" s="6">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C230" s="6">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C231" s="6">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C232" s="6">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C233" s="6">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C234" s="6">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C235" s="6">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C236" s="6">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C237" s="6">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C238" s="6">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C239" s="6">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C240" s="6">
-        <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C241" s="6">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C242" s="6">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C243" s="6">
-        <f t="shared" si="7"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C244" s="6">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C245" s="6">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C246" s="6">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C247" s="6">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C248" s="6">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C249" s="6">
-        <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C250" s="6">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C251" s="6">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C252" s="6">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C253" s="6">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C254" s="6">
-        <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C255" s="6">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>wound</v>
-      </c>
-      <c r="C256" s="6">
-        <f t="shared" si="7"/>
-        <v>65</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C257" s="6">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="6" t="str">
-        <f t="shared" ref="B258:B321" si="8">IF(ISBLANK(A258),B257,A258)</f>
-        <v>wound</v>
+        <f t="shared" si="6"/>
+        <v>wayward</v>
       </c>
       <c r="C258" s="6">
-        <f t="shared" ref="C258:C300" si="9">IF(ISBLANK(A258),C257+1,0)</f>
-        <v>67</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>wound</v>
+        <f t="shared" ref="B259:B301" si="8">IF(ISBLANK(A259),B258,A259)</f>
+        <v>wayward</v>
       </c>
       <c r="C259" s="6">
-        <f t="shared" si="9"/>
-        <v>68</v>
+        <f t="shared" ref="C259:C301" si="9">IF(ISBLANK(A259),C258+1,0)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C260" s="6">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C261" s="6">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C262" s="6">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C263" s="6">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C264" s="6">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C265" s="6">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C266" s="6">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C267" s="6">
         <f t="shared" si="9"/>
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C268" s="6">
         <f t="shared" si="9"/>
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C269" s="6">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C270" s="6">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C271" s="6">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C272" s="6">
         <f t="shared" si="9"/>
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C273" s="6">
         <f t="shared" si="9"/>
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C274" s="6">
         <f t="shared" si="9"/>
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C275" s="6">
         <f t="shared" si="9"/>
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C276" s="6">
         <f t="shared" si="9"/>
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C277" s="6">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C278" s="6">
         <f t="shared" si="9"/>
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C279" s="6">
         <f t="shared" si="9"/>
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C280" s="6">
         <f t="shared" si="9"/>
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C281" s="6">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C282" s="6">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C283" s="6">
         <f t="shared" si="9"/>
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C284" s="6">
         <f t="shared" si="9"/>
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C285" s="6">
         <f t="shared" si="9"/>
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C286" s="6">
         <f t="shared" si="9"/>
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C287" s="6">
         <f t="shared" si="9"/>
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C288" s="6">
         <f t="shared" si="9"/>
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C289" s="6">
         <f t="shared" si="9"/>
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C290" s="6">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C291" s="6">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C292" s="6">
         <f t="shared" si="9"/>
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C293" s="6">
         <f t="shared" si="9"/>
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C294" s="6">
         <f t="shared" si="9"/>
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C295" s="6">
         <f t="shared" si="9"/>
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C296" s="6">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C297" s="6">
         <f t="shared" si="9"/>
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C298" s="6">
         <f t="shared" si="9"/>
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C299" s="6">
         <f t="shared" si="9"/>
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>wound</v>
+        <v>wayward</v>
       </c>
       <c r="C300" s="6">
         <f t="shared" si="9"/>
-        <v>109</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>wayward</v>
+      </c>
+      <c r="C301" s="6">
+        <f t="shared" si="9"/>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K300">
-    <sortCondition ref="B2:B300"/>
-    <sortCondition ref="C2:C300"/>
+  <sortState ref="A196:L248">
+    <sortCondition ref="A196:A248"/>
   </sortState>
   <conditionalFormatting sqref="A1:K1048576">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -8234,8 +8598,177 @@
       <formula>MOD(COUNTIF($A$1:$A1,"&lt;&gt;"),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A83" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A10" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A17" r:id="rId8"/>
+    <hyperlink ref="A18" r:id="rId9"/>
+    <hyperlink ref="A20" r:id="rId10"/>
+    <hyperlink ref="A22" r:id="rId11"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A28" r:id="rId14"/>
+    <hyperlink ref="A31" r:id="rId15"/>
+    <hyperlink ref="A32" r:id="rId16"/>
+    <hyperlink ref="A33" r:id="rId17"/>
+    <hyperlink ref="A35" r:id="rId18"/>
+    <hyperlink ref="A37" r:id="rId19"/>
+    <hyperlink ref="A39" r:id="rId20"/>
+    <hyperlink ref="A42" r:id="rId21"/>
+    <hyperlink ref="A44" r:id="rId22"/>
+    <hyperlink ref="A45" r:id="rId23"/>
+    <hyperlink ref="A49" r:id="rId24"/>
+    <hyperlink ref="A53" r:id="rId25"/>
+    <hyperlink ref="A55" r:id="rId26"/>
+    <hyperlink ref="A58" r:id="rId27"/>
+    <hyperlink ref="A61" r:id="rId28"/>
+    <hyperlink ref="A62" r:id="rId29"/>
+    <hyperlink ref="A63" r:id="rId30"/>
+    <hyperlink ref="A65" r:id="rId31"/>
+    <hyperlink ref="A67" r:id="rId32"/>
+    <hyperlink ref="A70" r:id="rId33"/>
+    <hyperlink ref="A76" r:id="rId34"/>
+    <hyperlink ref="A77" r:id="rId35"/>
+    <hyperlink ref="A78" r:id="rId36"/>
+    <hyperlink ref="A79" r:id="rId37"/>
+    <hyperlink ref="A85" r:id="rId38"/>
+    <hyperlink ref="A86" r:id="rId39"/>
+    <hyperlink ref="A88" r:id="rId40"/>
+    <hyperlink ref="A90" r:id="rId41"/>
+    <hyperlink ref="A92" r:id="rId42"/>
+    <hyperlink ref="A93" r:id="rId43"/>
+    <hyperlink ref="A94" r:id="rId44"/>
+    <hyperlink ref="A95" r:id="rId45"/>
+    <hyperlink ref="A96" r:id="rId46"/>
+    <hyperlink ref="A97" r:id="rId47"/>
+    <hyperlink ref="A99" r:id="rId48"/>
+    <hyperlink ref="A100" r:id="rId49"/>
+    <hyperlink ref="A101" r:id="rId50"/>
+    <hyperlink ref="A102" r:id="rId51"/>
+    <hyperlink ref="A103" r:id="rId52"/>
+    <hyperlink ref="A104" r:id="rId53"/>
+    <hyperlink ref="A105" r:id="rId54"/>
+    <hyperlink ref="A106" r:id="rId55"/>
+    <hyperlink ref="A107" r:id="rId56"/>
+    <hyperlink ref="A108" r:id="rId57"/>
+    <hyperlink ref="A109" r:id="rId58"/>
+    <hyperlink ref="A110" r:id="rId59"/>
+    <hyperlink ref="A112" r:id="rId60"/>
+    <hyperlink ref="A116" r:id="rId61"/>
+    <hyperlink ref="A117" r:id="rId62"/>
+    <hyperlink ref="A118" r:id="rId63"/>
+    <hyperlink ref="A119" r:id="rId64"/>
+    <hyperlink ref="A120" r:id="rId65"/>
+    <hyperlink ref="A121" r:id="rId66"/>
+    <hyperlink ref="A127" r:id="rId67"/>
+    <hyperlink ref="A128" r:id="rId68"/>
+    <hyperlink ref="A130" r:id="rId69"/>
+    <hyperlink ref="A132" r:id="rId70"/>
+    <hyperlink ref="A135" r:id="rId71"/>
+    <hyperlink ref="A136" r:id="rId72"/>
+    <hyperlink ref="A137" r:id="rId73"/>
+    <hyperlink ref="A138" r:id="rId74"/>
+    <hyperlink ref="A139" r:id="rId75"/>
+    <hyperlink ref="A141" r:id="rId76"/>
+    <hyperlink ref="A142" r:id="rId77"/>
+    <hyperlink ref="A144" r:id="rId78"/>
+    <hyperlink ref="A145" r:id="rId79"/>
+    <hyperlink ref="A147" r:id="rId80"/>
+    <hyperlink ref="A148" r:id="rId81"/>
+    <hyperlink ref="A149" r:id="rId82"/>
+    <hyperlink ref="A151" r:id="rId83"/>
+    <hyperlink ref="A152" r:id="rId84"/>
+    <hyperlink ref="A154" r:id="rId85"/>
+    <hyperlink ref="A155" r:id="rId86"/>
+    <hyperlink ref="A156" r:id="rId87"/>
+    <hyperlink ref="A158" r:id="rId88"/>
+    <hyperlink ref="A159" r:id="rId89"/>
+    <hyperlink ref="A160" r:id="rId90"/>
+    <hyperlink ref="A162" r:id="rId91"/>
+    <hyperlink ref="A163" r:id="rId92"/>
+    <hyperlink ref="A165" r:id="rId93"/>
+    <hyperlink ref="A166" r:id="rId94"/>
+    <hyperlink ref="A167" r:id="rId95"/>
+    <hyperlink ref="A169" r:id="rId96"/>
+    <hyperlink ref="A170" r:id="rId97"/>
+    <hyperlink ref="A171" r:id="rId98"/>
+    <hyperlink ref="A173" r:id="rId99"/>
+    <hyperlink ref="A174" r:id="rId100"/>
+    <hyperlink ref="A175" r:id="rId101"/>
+    <hyperlink ref="A176" r:id="rId102"/>
+    <hyperlink ref="A178" r:id="rId103"/>
+    <hyperlink ref="A180" r:id="rId104"/>
+    <hyperlink ref="A182" r:id="rId105"/>
+    <hyperlink ref="A183" r:id="rId106"/>
+    <hyperlink ref="A184" r:id="rId107"/>
+    <hyperlink ref="A185" r:id="rId108"/>
+    <hyperlink ref="A187" r:id="rId109"/>
+    <hyperlink ref="A188" r:id="rId110"/>
+    <hyperlink ref="A189" r:id="rId111"/>
+    <hyperlink ref="A190" r:id="rId112"/>
+    <hyperlink ref="A191" r:id="rId113"/>
+    <hyperlink ref="A192" r:id="rId114"/>
+    <hyperlink ref="A196" r:id="rId115"/>
+    <hyperlink ref="A197" r:id="rId116"/>
+    <hyperlink ref="A198" r:id="rId117"/>
+    <hyperlink ref="A199" r:id="rId118"/>
+    <hyperlink ref="A200" r:id="rId119"/>
+    <hyperlink ref="A201" r:id="rId120"/>
+    <hyperlink ref="A202" r:id="rId121"/>
+    <hyperlink ref="A203" r:id="rId122"/>
+    <hyperlink ref="A204" r:id="rId123"/>
+    <hyperlink ref="A205" r:id="rId124"/>
+    <hyperlink ref="A206" r:id="rId125"/>
+    <hyperlink ref="A207" r:id="rId126"/>
+    <hyperlink ref="A208" r:id="rId127"/>
+    <hyperlink ref="A209" r:id="rId128"/>
+    <hyperlink ref="A210" r:id="rId129"/>
+    <hyperlink ref="A211" r:id="rId130"/>
+    <hyperlink ref="A212" r:id="rId131"/>
+    <hyperlink ref="A213" r:id="rId132"/>
+    <hyperlink ref="A214" r:id="rId133"/>
+    <hyperlink ref="A215" r:id="rId134"/>
+    <hyperlink ref="A216" r:id="rId135"/>
+    <hyperlink ref="A217" r:id="rId136"/>
+    <hyperlink ref="A218" r:id="rId137"/>
+    <hyperlink ref="A219" r:id="rId138"/>
+    <hyperlink ref="A220" r:id="rId139"/>
+    <hyperlink ref="A221" r:id="rId140"/>
+    <hyperlink ref="A222" r:id="rId141"/>
+    <hyperlink ref="A223" r:id="rId142"/>
+    <hyperlink ref="A224" r:id="rId143"/>
+    <hyperlink ref="A225" r:id="rId144"/>
+    <hyperlink ref="A226" r:id="rId145"/>
+    <hyperlink ref="A227" r:id="rId146"/>
+    <hyperlink ref="A228" r:id="rId147"/>
+    <hyperlink ref="A229" r:id="rId148"/>
+    <hyperlink ref="A230" r:id="rId149"/>
+    <hyperlink ref="A231" r:id="rId150"/>
+    <hyperlink ref="A232" r:id="rId151"/>
+    <hyperlink ref="A233" r:id="rId152"/>
+    <hyperlink ref="A234" r:id="rId153"/>
+    <hyperlink ref="A235" r:id="rId154"/>
+    <hyperlink ref="A236" r:id="rId155"/>
+    <hyperlink ref="A237" r:id="rId156"/>
+    <hyperlink ref="A238" r:id="rId157"/>
+    <hyperlink ref="A239" r:id="rId158"/>
+    <hyperlink ref="A240" r:id="rId159"/>
+    <hyperlink ref="A241" r:id="rId160"/>
+    <hyperlink ref="A242" r:id="rId161"/>
+    <hyperlink ref="A243" r:id="rId162"/>
+    <hyperlink ref="A244" r:id="rId163"/>
+    <hyperlink ref="A245" r:id="rId164"/>
+    <hyperlink ref="A246" r:id="rId165"/>
+    <hyperlink ref="A247" r:id="rId166"/>
+    <hyperlink ref="A248" r:id="rId167"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId168"/>
 </worksheet>
 </file>
 
